--- a/SymWebNew/Files/Export/PF of-Jul-25.xlsx
+++ b/SymWebNew/Files/Export/PF of-Jul-25.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="11700"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="20775" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Contribution" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>EmpCode</t>
   </si>
@@ -52,18 +52,36 @@
     <t>Salary Period</t>
   </si>
   <si>
+    <t>A-123</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Dekko Isho</t>
+  </si>
+  <si>
+    <t>Jul-25</t>
+  </si>
+  <si>
     <t>DGT000056</t>
   </si>
   <si>
     <t xml:space="preserve">Md. Foysal Hossain Sohag  </t>
   </si>
   <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
     <t>Internal Audit</t>
   </si>
   <si>
-    <t>Jul-25</t>
-  </si>
-  <si>
     <t>DGT000064</t>
   </si>
   <si>
@@ -79,6 +97,9 @@
     <t xml:space="preserve">Uthpal Saha  </t>
   </si>
   <si>
+    <t>Sr. Manager</t>
+  </si>
+  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -88,6 +109,9 @@
     <t xml:space="preserve">Md. Golam Kibrea  </t>
   </si>
   <si>
+    <t>Deputy Manager</t>
+  </si>
+  <si>
     <t>Commercial</t>
   </si>
   <si>
@@ -112,18 +136,15 @@
     <t xml:space="preserve">Supan Saha  </t>
   </si>
   <si>
-    <t>EMP-000031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Ali Hossain Imam  </t>
-  </si>
-  <si>
     <t>EMP-000085</t>
   </si>
   <si>
     <t xml:space="preserve">Md. Hafizur Rahman  </t>
   </si>
   <si>
+    <t>Jr. Executive</t>
+  </si>
+  <si>
     <t>EMP-000347</t>
   </si>
   <si>
@@ -131,12 +152,6 @@
   </si>
   <si>
     <t>Merchandising</t>
-  </si>
-  <si>
-    <t>EMP-000376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khandokar Ashikur Rahman  </t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -528,37 +543,55 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="J2">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -570,271 +603,314 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J5">
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J6">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J7">
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J8">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J9">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J10">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="J11">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-      <c r="J12">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SymWebNew/Files/Export/PF of-Jul-25.xlsx
+++ b/SymWebNew/Files/Export/PF of-Jul-25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="20775" windowHeight="7620"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Contribution" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>EmpCode</t>
   </si>
@@ -31,16 +31,19 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Project</t>
+    <t>UnitName</t>
   </si>
   <si>
     <t>BasicSalary</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>EmployeeContribution</t>
+  </si>
+  <si>
+    <t>EmployerContribution</t>
+  </si>
+  <si>
+    <t>Loan</t>
   </si>
   <si>
     <t>FYDId</t>
@@ -52,42 +55,33 @@
     <t>Salary Period</t>
   </si>
   <si>
-    <t>A-123</t>
-  </si>
-  <si>
-    <t>Akash</t>
+    <t>DGT000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Foysal Hossain Sohag  </t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Internal Audit</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>Jul-25</t>
+  </si>
+  <si>
+    <t>DGT000064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Anisur Rahman  </t>
   </si>
   <si>
     <t>Assistant Manager</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Dekko Isho</t>
-  </si>
-  <si>
-    <t>Jul-25</t>
-  </si>
-  <si>
-    <t>DGT000056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Foysal Hossain Sohag  </t>
-  </si>
-  <si>
-    <t>Senior Executive</t>
-  </si>
-  <si>
-    <t>Internal Audit</t>
-  </si>
-  <si>
-    <t>DGT000064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Anisur Rahman  </t>
-  </si>
-  <si>
     <t>Procurement</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">Supan Saha  </t>
+  </si>
+  <si>
+    <t>EMP-000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Ali Hossain Imam  </t>
   </si>
   <si>
     <t>EMP-000085</t>
@@ -487,15 +487,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,236 +547,257 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50000</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
+        <v>916</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
+        <v>5416</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>120</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>300</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>400</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -772,34 +808,37 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I8">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -810,34 +849,37 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I9">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -851,31 +893,34 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I10">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -886,31 +931,34 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I11">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
